--- a/inspection/itext.xlsx
+++ b/inspection/itext.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323EF4B1-9935-4A1B-B141-C621B38407D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>PARU</t>
   </si>
@@ -295,13 +302,19 @@
   </si>
   <si>
     <t>f_score</t>
+  </si>
+  <si>
+    <t>It can be &lt;CODE&gt;null&lt;/CODE&gt;</t>
+  </si>
+  <si>
+    <t>If it's &lt;CODE&gt;null&lt;/CODE&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,8 +336,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +358,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -347,10 +373,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -369,9 +398,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -648,19 +679,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="58.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -671,7 +702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -686,7 +717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -697,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -708,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -719,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -730,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -741,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -752,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -763,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -774,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -785,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -796,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -807,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -818,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -829,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -840,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -851,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -862,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -873,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -884,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -892,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -900,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -911,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -922,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -933,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -944,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -955,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -966,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -977,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -988,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -999,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1010,23 +1041,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>81</v>
       </c>
@@ -1034,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -1045,15 +1078,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
@@ -1062,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
@@ -1073,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
@@ -1084,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
@@ -1095,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
@@ -1106,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
@@ -1117,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
@@ -1128,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -1139,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -1150,23 +1184,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="D47" s="10">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="D48" s="10">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>44</v>
       </c>
@@ -1177,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>45</v>
       </c>
@@ -1188,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>46</v>
       </c>
@@ -1199,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>47</v>
       </c>
@@ -1210,23 +1256,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="D53" s="10">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="D54" s="10">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>49</v>
       </c>
@@ -1237,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>50</v>
       </c>
@@ -1248,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>51</v>
       </c>
@@ -1259,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>52</v>
       </c>
@@ -1270,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>53</v>
       </c>
@@ -1281,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>54</v>
       </c>
@@ -1289,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>55</v>
       </c>
@@ -1297,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>56</v>
       </c>
@@ -1305,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>57</v>
       </c>
@@ -1316,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>58</v>
       </c>
@@ -1327,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>59</v>
       </c>
@@ -1338,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>60</v>
       </c>
@@ -1349,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>61</v>
       </c>
@@ -1358,7 +1416,7 @@
       </c>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>61</v>
       </c>
@@ -1369,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>62</v>
       </c>
@@ -1377,11 +1435,16 @@
         <v>1</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="D69" s="10">
+        <v>1</v>
+      </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>63</v>
       </c>
@@ -1389,11 +1452,16 @@
         <v>1</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="D70" s="10">
+        <v>1</v>
+      </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>64</v>
       </c>
@@ -1404,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>65</v>
       </c>
@@ -1415,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>66</v>
       </c>
@@ -1426,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>67</v>
       </c>
@@ -1437,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>68</v>
       </c>
@@ -1448,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>69</v>
       </c>
@@ -1457,23 +1525,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="D77" s="10">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="D78" s="10">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>72</v>
       </c>
@@ -1484,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>73</v>
       </c>
@@ -1495,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>74</v>
       </c>
@@ -1506,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>75</v>
       </c>
@@ -1517,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>76</v>
       </c>
@@ -1528,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>77</v>
       </c>
@@ -1539,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>78</v>
       </c>
@@ -1550,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>85</v>
       </c>
@@ -1564,33 +1644,33 @@
       </c>
       <c r="D88" s="8">
         <f>COUNTIF(D3:D85,1)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E88" s="8">
         <f>COUNTIF(E3:E85,1)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B90">
         <f>COUNTIFS(B3:B85, 1, D3:D85, 1)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C90">
         <f>COUNTIFS(C3:C85, 1, E3:E85, 1)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B92">
         <f>B90/B88</f>
-        <v>0.42105263157894735</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="C92">
         <f>C90/C88</f>
@@ -1598,33 +1678,33 @@
       </c>
       <c r="D92">
         <f>B90/D88</f>
-        <v>0.72727272727272729</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="E92">
         <f>C90/E88</f>
         <v>0.9821428571428571</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B94">
         <f>(B90+C90)/(B88+C88)</f>
-        <v>0.79746835443037978</v>
+        <v>0.89873417721518989</v>
       </c>
       <c r="C94">
         <f>(B90+C90)/(D88+E88)</f>
-        <v>0.94029850746268662</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.94666666666666666</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B96">
         <f>2*B94*C94/(B94+C94)</f>
-        <v>0.8630136986301371</v>
+        <v>0.92207792207792216</v>
       </c>
     </row>
   </sheetData>
